--- a/МИО/LW_2/LW_MIO_2.xlsx
+++ b/МИО/LW_2/LW_MIO_2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>дней</t>
   </si>
@@ -58,36 +58,12 @@
     <t>po</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Интенсивность потока</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Средняя длина очереди </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Продолжительность пребывания заявки в системе </t>
-  </si>
-  <si>
-    <t>Продолжительность пребывания заявки в очереди</t>
-  </si>
-  <si>
-    <t>Доход</t>
-  </si>
-  <si>
     <t>Вероятность отказа</t>
   </si>
   <si>
-    <t>Рублей/час</t>
-  </si>
-  <si>
-    <t>ρ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Параметр </t>
   </si>
   <si>
@@ -121,19 +97,76 @@
     <t>Ископаемое топливо</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t>Обслуживание эм в день</t>
   </si>
   <si>
     <t>Интенсивность нагрузки</t>
+  </si>
+  <si>
+    <t>Q = µ/(µ+λ)</t>
+  </si>
+  <si>
+    <t>ρ = λ/µ</t>
+  </si>
+  <si>
+    <t>Время работы станции</t>
+  </si>
+  <si>
+    <t>T дней</t>
+  </si>
+  <si>
+    <t>Объем работы</t>
+  </si>
+  <si>
+    <t>W=A*T эм/месяц</t>
+  </si>
+  <si>
+    <t>Прибыль</t>
+  </si>
+  <si>
+    <t>Средняя емкость батареи</t>
+  </si>
+  <si>
+    <t>у.е./кВт*ч</t>
+  </si>
+  <si>
+    <t>Стоимость зарядки</t>
+  </si>
+  <si>
+    <t>Затраты на получение электричества</t>
+  </si>
+  <si>
+    <t>Стоимость обслуживания станции</t>
+  </si>
+  <si>
+    <t>у.е. в месяц</t>
+  </si>
+  <si>
+    <t>P= λ/(µ + λ)</t>
+  </si>
+  <si>
+    <t>A = λ*Q эм/день</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вероятность незанятости станции </t>
+  </si>
+  <si>
+    <t>Р=1- ρ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее количество заявок в системе </t>
+  </si>
+  <si>
+    <t>ρ /(1- ρ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.00\ _₽"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +199,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +215,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -250,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -275,8 +314,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
@@ -364,8 +418,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D17" totalsRowShown="0" dataDxfId="4" headerRowCellStyle="Вывод" dataCellStyle="Вывод">
-  <autoFilter ref="A1:D17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D21" totalsRowShown="0" dataDxfId="4" headerRowCellStyle="Вывод" dataCellStyle="Вывод">
+  <autoFilter ref="A1:D21"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Параметр " dataDxfId="3" dataCellStyle="Вывод"/>
     <tableColumn id="2" name="Обозначения" dataDxfId="2" dataCellStyle="Вывод"/>
@@ -639,263 +693,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="13">
+        <v>30</v>
+      </c>
+      <c r="D3" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13">
+        <v>100</v>
+      </c>
+      <c r="D4" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="13">
+        <f>24/C6</f>
         <v>32</v>
       </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="11">
-        <v>100</v>
-      </c>
-      <c r="D3" s="11">
-        <v>100</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="D5" s="13">
+        <f>24/D6</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="14">
         <v>0.75</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D6" s="14">
         <v>0.5</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="11">
-        <f>24/C4</f>
-        <v>32</v>
-      </c>
-      <c r="D6" s="11">
-        <f>24/D4</f>
-        <v>48</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="11">
-        <f>C6/(C6+C3)</f>
-        <v>0.24242424242424243</v>
-      </c>
-      <c r="D8" s="11">
-        <f>D6/(D6+D3)</f>
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="11">
-        <f>C3*C6</f>
-        <v>3200</v>
-      </c>
-      <c r="D9" s="11">
-        <f>D3*D8</f>
-        <v>32.432432432432435</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="14">
+        <v>60</v>
+      </c>
+      <c r="D7" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="11">
-        <f>C3/C6</f>
-        <v>3.125</v>
-      </c>
-      <c r="D10" s="11">
-        <f>D3/D6</f>
-        <v>2.0833333333333335</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="11">
-        <f>C3/(C6+C3)</f>
+        <v>27</v>
+      </c>
+      <c r="C12" s="13">
+        <f>C5/(C5+C4)</f>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="D12" s="13">
+        <f>D5/(D5+D4)</f>
+        <v>0.32432432432432434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="16">
+        <f>C4*C12</f>
+        <v>24.242424242424242</v>
+      </c>
+      <c r="D13" s="16">
+        <f>D4*D12</f>
+        <v>32.432432432432435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="18">
+        <f>C4/C5</f>
+        <v>3.125</v>
+      </c>
+      <c r="D14" s="18">
+        <f>D4/D5</f>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="13">
+        <f>C4/(C5+C4)</f>
         <v>0.75757575757575757</v>
       </c>
-      <c r="D12" s="11">
-        <f>D3/(D6+D3)</f>
+      <c r="D15" s="13">
+        <f>D4/(D5+D4)</f>
         <v>0.67567567567567566</v>
       </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="11">
-        <f>C8/(1)</f>
-        <v>0.24242424242424243</v>
-      </c>
-      <c r="D13" s="11">
-        <f>D8/(1-D8)</f>
-        <v>0.48000000000000004</v>
-      </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="11">
-        <f>C8^2/(1-C8)</f>
-        <v>7.757575757575759E-2</v>
-      </c>
-      <c r="D14" s="11">
-        <f>D8^2/(1-D8)</f>
-        <v>0.1556756756756757</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="11">
-        <f>1/(C6-C3)</f>
-        <v>-1.4705882352941176E-2</v>
-      </c>
-      <c r="D15" s="11">
-        <f>1/(D6-D3)</f>
-        <v>-1.9230769230769232E-2</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="11">
-        <f>C3/(C6^2-C6*C3)</f>
-        <v>-4.595588235294118E-2</v>
-      </c>
-      <c r="D16" s="11">
-        <f>D3/(D6^2-D6*D3)</f>
-        <v>-4.0064102564102567E-2</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="11">
-        <f>C9*C5-C7</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="11">
-        <f>D9*D5-D7</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="13">
+        <f>C13*C3</f>
+        <v>727.27272727272725</v>
+      </c>
+      <c r="D16" s="13">
+        <f>D13*D3</f>
+        <v>972.97297297297303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="13">
+        <f>1-C14</f>
+        <v>-2.125</v>
+      </c>
+      <c r="D18" s="13">
+        <f>1-D14</f>
+        <v>-1.0833333333333335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="15">
+        <f>C14/(1-C14)</f>
+        <v>-1.4705882352941178</v>
+      </c>
+      <c r="D19" s="15">
+        <f>D14/(1-D14)</f>
+        <v>-1.9230769230769229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="13">
+        <f>C16*C7*C8-C16*C7*C9-C10</f>
+        <v>8727.2727272727261</v>
+      </c>
+      <c r="D21" s="13">
+        <f>D16*D7*D8-D16*D7*D9-D10</f>
+        <v>8406.7567567567567</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -956,11 +1053,11 @@
         <v>11</v>
       </c>
       <c r="C3" s="2">
-        <f>Лист1!C3/C2</f>
+        <f>Лист1!C4/C2</f>
         <v>50</v>
       </c>
       <c r="D3" s="2">
-        <f>Лист1!D3/D2</f>
+        <f>Лист1!D4/D2</f>
         <v>70</v>
       </c>
       <c r="E3" s="3"/>
@@ -971,11 +1068,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="5">
-        <f>C2/(C2+Лист1!C3)</f>
+        <f>C2/(C2+Лист1!C4)</f>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="D4" s="5">
-        <f>D2/(D2+Лист1!D3)</f>
+        <f>D2/(D2+Лист1!D4)</f>
         <v>1.4084507042253521E-2</v>
       </c>
       <c r="E4" s="6"/>
@@ -1016,11 +1113,11 @@
         <v>8</v>
       </c>
       <c r="C7" s="2">
-        <f>C6*Лист1!C3</f>
+        <f>C6*Лист1!C4</f>
         <v>1.9607843137254901</v>
       </c>
       <c r="D7" s="2">
-        <f>D6*Лист1!D3</f>
+        <f>D6*Лист1!D4</f>
         <v>1.4084507042253522</v>
       </c>
       <c r="E7" s="3"/>
